--- a/TestCase/Baihe_sendmessage.xlsx
+++ b/TestCase/Baihe_sendmessage.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Baihe_Login" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
@@ -16,29 +16,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="6">
   <si>
     <t>url</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>publicParam</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>otherParam</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://plus.app.baihe.com/register/login?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>traceID=1&amp;systemID=2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>params={"mobile":"18100000001","password":"111111","appId":"1","plusPhoneModel":"Xiaomi-MI 4W","plusChannel":"baihe_android_bhw_y","device":"864895021559263","appUpgradeVersionCode":76,"plusClientVersion":"7.4.0","apver":"7.4.0","plusCode":"0001","plusPhoneOSVersion":"4.4.4","plusPlatform":"1202","channel":"android||Android_4.4.4||0001##baihe_android_bhw_y||bhw_non_0001_76_7.4.0"}</t>
+    <t>result</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>code=200
+apver=7.4.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>get/post</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>post</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://plus.app.baihe.com/register/login?traceID=1&amp;systemID=2&amp;params={"mobile":"13716927954","password":"qqqqqqqq","appId":"1","plusPhoneModel":"Xiaomi-MI 4W","plusChannel":"baihe_android_bhw_y","device":"864895021559263","appUpgradeVersionCode":76,"plusClientVersion":"7.4.0","apver":"7.4.0","plusCode":"0001","plusPhoneOSVersion":"4.4.4","plusPlatform":"1202","channel":""}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -46,7 +47,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -67,6 +68,14 @@
       <sz val="11"/>
       <color theme="10"/>
       <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -96,12 +105,15 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -398,48 +410,59 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="44.25" customWidth="1"/>
-    <col min="2" max="2" width="33" customWidth="1"/>
-    <col min="3" max="3" width="42.5" customWidth="1"/>
+    <col min="2" max="2" width="71.125" customWidth="1"/>
+    <col min="3" max="3" width="31.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="2" spans="1:3" s="1" customFormat="1" ht="94.5">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="19.5" customHeight="1">
-      <c r="A2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="3" spans="1:3" ht="94.5">
+      <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B3" s="2" t="s">
         <v>5</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="B3"/>
+    <hyperlink ref="B2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
 </file>
 
